--- a/baseline_model/data/House_Attribute_flood.xlsx
+++ b/baseline_model/data/House_Attribute_flood.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_term\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EB094-C9E9-4CF1-A61B-976A40F9333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFFF9D-1BF1-4954-98B2-F6235FA2A701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Type</t>
   </si>
@@ -33,30 +33,12 @@
     <t>MHU_A</t>
   </si>
   <si>
-    <t>MHU_inA</t>
-  </si>
-  <si>
-    <t>MFL_Repair</t>
-  </si>
-  <si>
-    <t>Hotel_A</t>
-  </si>
-  <si>
-    <t>Hotel_inA</t>
-  </si>
-  <si>
     <t>RAPIDO</t>
   </si>
   <si>
     <t>K_Cot</t>
   </si>
   <si>
-    <t>D_Home</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
     <t>Adap</t>
   </si>
   <si>
@@ -79,6 +61,9 @@
   </si>
   <si>
     <t>Hazard_vulner</t>
+  </si>
+  <si>
+    <t>trailer</t>
   </si>
 </sst>
 </file>
@@ -399,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,17 +395,12 @@
     <col min="1" max="1" width="38.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,97 +408,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
@@ -532,25 +467,10 @@
       <c r="E4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>0.33100000000000002</v>
@@ -559,30 +479,15 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>0.85699999999999998</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="H5" s="1">
         <v>0.316</v>
       </c>
-      <c r="I5" s="1">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -594,27 +499,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>0.13400000000000001</v>
@@ -623,30 +513,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.89100000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.622</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="H7" s="1">
         <v>0.53</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -660,25 +535,10 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -687,25 +547,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0.41399999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.41399999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
